--- a/HospitalMaster.xlsx
+++ b/HospitalMaster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i076520\OneDrive - SAP SE\Documents\3. Org Activities\2020\1B Lives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i320030\OneDrive - SAP SE\Documents\Projects\1Blives\Data gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A53436F-9563-48A1-AF63-9E9FDE9324BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7A53436F-9563-48A1-AF63-9E9FDE9324BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E4AA9F3D-CDE9-4DD6-83AE-206ADF23D803}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{A4A1524F-DCA5-4ADD-A2CD-D96ED780875D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4A1524F-DCA5-4ADD-A2CD-D96ED780875D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,6 +1704,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007751DE7D8FAD0D48B567ADDBBDE63DB1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a210909840d9aa9bc47c00f49d7ebf1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78b1d171-2f7b-4786-bdfb-1372ef3e77af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb029dbb11c491543f46b6e3368f3f11" ns2:_="">
     <xsd:import namespace="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
@@ -1849,29 +1864,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A20A7AD6-C064-40E3-A77B-6DDB0019A7D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F0D4A4-838D-4682-A946-E96A979742AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA9B9B2-B5E3-4034-B534-609168813D21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA9B9B2-B5E3-4034-B534-609168813D21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F0D4A4-838D-4682-A946-E96A979742AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A20A7AD6-C064-40E3-A77B-6DDB0019A7D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/HospitalMaster.xlsx
+++ b/HospitalMaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i320030\OneDrive - SAP SE\Documents\Projects\1Blives\Data gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7A53436F-9563-48A1-AF63-9E9FDE9324BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E4AA9F3D-CDE9-4DD6-83AE-206ADF23D803}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7A53436F-9563-48A1-AF63-9E9FDE9324BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{79AFFD64-ED8C-42D4-84BD-ED2A2E6401D5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4A1524F-DCA5-4ADD-A2CD-D96ED780875D}"/>
   </bookViews>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15B1C2-5799-4AE7-81D2-886DC008E13F}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,18 +1704,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1865,25 +1865,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F0D4A4-838D-4682-A946-E96A979742AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA9B9B2-B5E3-4034-B534-609168813D21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA9B9B2-B5E3-4034-B534-609168813D21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F0D4A4-838D-4682-A946-E96A979742AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78b1d171-2f7b-4786-bdfb-1372ef3e77af"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
